--- a/input_output.xlsx
+++ b/input_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E9B1F9-7E2C-4B63-8B06-93FA93A740DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50BE527-01E9-4AEA-9E3F-80573529E86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30150" yWindow="-120" windowWidth="27570" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30150" yWindow="-120" windowWidth="27570" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>hello</t>
   </si>
   <si>
-    <t>C:\users\johnny\file3.pdf</t>
-  </si>
-  <si>
     <t>Text</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>File</t>
+  </si>
+  <si>
+    <t>C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf</t>
   </si>
 </sst>
 </file>
@@ -432,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,7 +463,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,7 +477,7 @@
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -491,7 +491,7 @@
         <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,7 +516,7 @@
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -528,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AFEA03-870A-4448-84D8-31DFEF0889DA}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -536,16 +536,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/input_output.xlsx
+++ b/input_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A50BE527-01E9-4AEA-9E3F-80573529E86C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEF63D4-3C7C-49D0-BC61-4EB0FE4CEDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30150" yWindow="-120" windowWidth="27570" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-120" windowWidth="27480" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,18 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>Lname</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>file2upload</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
@@ -63,6 +51,18 @@
   </si>
   <si>
     <t>C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\Test Run Report 26.pdf</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Upload Document</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -433,73 +433,79 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>111</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>111</v>
@@ -507,16 +513,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -536,16 +542,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/input_output.xlsx
+++ b/input_output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnny.abouhaidar\Desktop\myfiles\katalon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEF63D4-3C7C-49D0-BC61-4EB0FE4CEDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9249F2F8-3843-4920-BAEF-ED710DB0291F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-120" windowWidth="27480" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35070" yWindow="4365" windowWidth="20505" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>John</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Submit</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -117,13 +123,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -430,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +464,7 @@
     <col min="4" max="4" width="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -457,8 +477,11 @@
       <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -472,7 +495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -486,7 +509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -500,7 +523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -511,7 +534,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -532,15 +555,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2AFEA03-870A-4448-84D8-31DFEF0889DA}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -552,6 +575,9 @@
       </c>
       <c r="D1" t="s">
         <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
